--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1434408.941243528</v>
+        <v>1378631.419100924</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111178</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7086758.985320223</v>
+        <v>7086758.985320219</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>214.0077506398264</v>
       </c>
       <c r="H2" t="n">
-        <v>198.7050131246913</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>123.1846644288417</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>166.3809810594883</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>240.0192609915369</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>128.8201372440119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.1159031720507</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>50.29171516770226</v>
       </c>
     </row>
     <row r="9">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>88.91888512441763</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1268,13 +1268,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>180.1631974422643</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>339.2119352020417</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>116.5160844440566</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>120.2770348601148</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>48.98427584501924</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21.3881647021493</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>163.3346557941055</v>
+        <v>269.3433964359335</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1703,10 +1703,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>131.1234544693897</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>48.98427584501946</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="I16" t="n">
-        <v>21.38816470214935</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>118.6954547790018</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>62.98985437657991</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>34.28974649965685</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>7.42522453130207</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>73.36175976093796</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>93.60147821055892</v>
+        <v>71.83464634631558</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>48.98427584501924</v>
+        <v>180.6140512955043</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>218.2848660597141</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>405.7415719969023</v>
@@ -2371,16 +2371,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>119.5220420416592</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2405,13 +2405,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>122.0501874122703</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>79.01951345766003</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.06064116356413</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>145.6674229028287</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>320.085381511122</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>83.85219763151079</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>98.25175036434945</v>
       </c>
       <c r="I27" t="n">
-        <v>39.7949238961161</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969024</v>
+        <v>257.9648699330302</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>46.94459123257286</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>108.7662110425723</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5439382344026726</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>9.157260519343193</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>34.65343661111039</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>58.42685044277528</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>158.426777705408</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>88.00880902957816</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>147.3949262322357</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3167,7 +3167,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>73.36175976093797</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>179.3720598661024</v>
       </c>
       <c r="H35" t="n">
-        <v>319.9764258592341</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>87.30283807112673</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -3410,10 +3410,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>9.985303261229244</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>12.35168551462429</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>30.96091120189156</v>
       </c>
       <c r="U38" t="n">
-        <v>141.639626083508</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>81.1275227326783</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>21.38816470214935</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>9.157260519343172</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
-        <v>86.65804289016241</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>21.40248296244335</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>128.4562226808344</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>113.0139182115325</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
@@ -3875,7 +3875,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>33.64439241526568</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>99.78974769572879</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>405.7415719969023</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>43.50864318698307</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>26.50533691882911</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>59.9313953724316</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>125.927544107247</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>73.36175976093796</v>
       </c>
       <c r="G46" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
         <v>467.067986854209</v>
@@ -4321,7 +4321,7 @@
         <v>460.1224861050055</v>
       </c>
       <c r="G2" t="n">
-        <v>444.665175483657</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
         <v>243.9530410142718</v>
@@ -4363,19 +4363,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284.787934186969</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F3" t="n">
         <v>110.334904905842</v>
@@ -4418,10 +4418,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>492.6394343925018</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>492.6394343925018</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>492.6394343925018</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>284.787934186969</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>284.787934186969</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>285.1327311248648</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>41.68395448076474</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>41.68395448076474</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.68395448076474</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430.5683595072983</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C6" t="n">
-        <v>256.1153302261713</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D6" t="n">
-        <v>256.1153302261713</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E6" t="n">
-        <v>256.1153302261713</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F6" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W6" t="n">
-        <v>728.9050472788936</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X6" t="n">
-        <v>728.9050472788936</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y6" t="n">
-        <v>598.7836965273664</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.6192102101089</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>874.2400998294063</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>700.8227552800752</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>498.6361606388412</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>498.6361606388412</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="V9" t="n">
-        <v>263.4840524070985</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1311.402045381201</v>
+        <v>559.9923120637511</v>
       </c>
       <c r="C11" t="n">
-        <v>1311.402045381201</v>
+        <v>559.9923120637511</v>
       </c>
       <c r="D11" t="n">
-        <v>1311.402045381201</v>
+        <v>559.9923120637511</v>
       </c>
       <c r="E11" t="n">
-        <v>1311.402045381201</v>
+        <v>559.9923120637511</v>
       </c>
       <c r="F11" t="n">
-        <v>968.7637269953007</v>
+        <v>150.1523403497084</v>
       </c>
       <c r="G11" t="n">
-        <v>558.9237552812579</v>
+        <v>150.1523403497084</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>150.1523403497084</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K11" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T11" t="n">
-        <v>1311.402045381201</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U11" t="n">
-        <v>1311.402045381201</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V11" t="n">
-        <v>1311.402045381201</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="W11" t="n">
-        <v>1311.402045381201</v>
+        <v>933.4580703248309</v>
       </c>
       <c r="X11" t="n">
-        <v>1311.402045381201</v>
+        <v>559.9923120637511</v>
       </c>
       <c r="Y11" t="n">
-        <v>1311.402045381201</v>
+        <v>559.9923120637511</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.6600854869342</v>
+        <v>328.4043094450356</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>153.9512801639086</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>153.9512801639086</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
         <v>61.20822116384403</v>
@@ -5126,19 +5126,19 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>636.3836421851987</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609044</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
@@ -5150,22 +5150,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.966287987609</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U12" t="n">
-        <v>1622.966287987609</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V12" t="n">
-        <v>1622.966287987609</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W12" t="n">
-        <v>1573.487221477489</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.635721271956</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.875422507002</v>
+        <v>496.6196464651036</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.4902764300189</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C13" t="n">
-        <v>129.4902764300189</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D13" t="n">
-        <v>129.4902764300189</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E13" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5220,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>129.4902764300189</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X13" t="n">
-        <v>129.4902764300189</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.4902764300189</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>580.3810541751592</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="C14" t="n">
-        <v>580.3810541751592</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D14" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E14" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5299,31 +5299,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T14" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U14" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V14" t="n">
-        <v>1343.986144412051</v>
+        <v>1153.333651350659</v>
       </c>
       <c r="W14" t="n">
-        <v>1343.986144412051</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="X14" t="n">
-        <v>970.5203861509709</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="Y14" t="n">
-        <v>580.3810541751592</v>
+        <v>800.5649960805454</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>651.0967412602795</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L15" t="n">
-        <v>534.697260562599</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668621</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609044</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.96628798761</v>
+        <v>1490.518354180145</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.96628798761</v>
+        <v>1490.518354180145</v>
       </c>
       <c r="U15" t="n">
-        <v>1622.96628798761</v>
+        <v>1262.315686717623</v>
       </c>
       <c r="V15" t="n">
-        <v>1622.96628798761</v>
+        <v>1027.16357848588</v>
       </c>
       <c r="W15" t="n">
-        <v>1573.487221477489</v>
+        <v>1027.16357848588</v>
       </c>
       <c r="X15" t="n">
-        <v>1365.635721271956</v>
+        <v>819.3120782803476</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.875422507002</v>
+        <v>819.3120782803476</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.490276430019</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C16" t="n">
-        <v>129.490276430019</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D16" t="n">
-        <v>129.490276430019</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E16" t="n">
-        <v>129.490276430019</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F16" t="n">
-        <v>129.490276430019</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="G16" t="n">
-        <v>129.490276430019</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="H16" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5457,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>129.490276430019</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X16" t="n">
-        <v>129.490276430019</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.490276430019</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="17">
@@ -5518,19 +5518,19 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P17" t="n">
         <v>1569.862809315274</v>
@@ -5542,13 +5542,13 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S17" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T17" t="n">
-        <v>1088.658125761969</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U17" t="n">
-        <v>968.7637269953007</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="V17" t="n">
         <v>968.7637269953007</v>
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39.95955255904721</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C18" t="n">
-        <v>39.95955255904721</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D18" t="n">
-        <v>39.95955255904721</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E18" t="n">
-        <v>39.95955255904721</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975219</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H18" t="n">
         <v>32.45932575975219</v>
@@ -5597,13 +5597,13 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9399761455072</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313475</v>
+        <v>636.3836421851988</v>
       </c>
       <c r="N18" t="n">
         <v>948.4732699082808</v>
@@ -5630,16 +5630,16 @@
         <v>944.9608164894784</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577356</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="W18" t="n">
-        <v>455.571351529534</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240011</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.95955255904721</v>
+        <v>944.9608164894784</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.5621133970633</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C19" t="n">
-        <v>106.5621133970633</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F19" t="n">
         <v>32.45932575975219</v>
@@ -5709,16 +5709,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>106.5621133970633</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>106.5621133970633</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X19" t="n">
-        <v>106.5621133970633</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.5621133970633</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>726.5022749698848</v>
+        <v>463.2852732011649</v>
       </c>
       <c r="C20" t="n">
-        <v>726.5022749698848</v>
+        <v>463.2852732011649</v>
       </c>
       <c r="D20" t="n">
-        <v>726.5022749698848</v>
+        <v>105.0195745944144</v>
       </c>
       <c r="E20" t="n">
-        <v>726.5022749698848</v>
+        <v>105.0195745944144</v>
       </c>
       <c r="F20" t="n">
-        <v>726.5022749698848</v>
+        <v>105.0195745944144</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6623032558419</v>
+        <v>105.0195745944144</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T20" t="n">
-        <v>1311.402045381201</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U20" t="n">
-        <v>1057.565162313455</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V20" t="n">
-        <v>726.5022749698848</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W20" t="n">
-        <v>726.5022749698848</v>
+        <v>849.8851132652867</v>
       </c>
       <c r="X20" t="n">
-        <v>726.5022749698848</v>
+        <v>849.8851132652867</v>
       </c>
       <c r="Y20" t="n">
-        <v>726.5022749698848</v>
+        <v>849.8851132652867</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>989.6600854869342</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C21" t="n">
-        <v>815.2070562058072</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D21" t="n">
-        <v>666.272646544556</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>758.3581127497703</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N21" t="n">
-        <v>1160.042269026704</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O21" t="n">
-        <v>1483.055776201262</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5861,22 +5861,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T21" t="n">
-        <v>1573.487221477489</v>
+        <v>1440.527852335585</v>
       </c>
       <c r="U21" t="n">
-        <v>1573.487221477489</v>
+        <v>1212.325184873063</v>
       </c>
       <c r="V21" t="n">
-        <v>1573.487221477489</v>
+        <v>977.1730766413204</v>
       </c>
       <c r="W21" t="n">
-        <v>1573.487221477489</v>
+        <v>722.9357199131188</v>
       </c>
       <c r="X21" t="n">
-        <v>1365.635721271956</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.875422507002</v>
+        <v>515.0842197075859</v>
       </c>
     </row>
     <row r="22">
@@ -5943,16 +5943,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>72.05002336285366</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V22" t="n">
-        <v>72.05002336285366</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W22" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
         <v>32.45932575975219</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1072.629032884519</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C23" t="n">
-        <v>1072.629032884519</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D23" t="n">
-        <v>1072.629032884519</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E23" t="n">
-        <v>852.1392691878377</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F23" t="n">
         <v>442.2992974737949</v>
@@ -5989,10 +5989,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
@@ -6019,22 +6019,22 @@
         <v>1425.397688154633</v>
       </c>
       <c r="T23" t="n">
-        <v>1425.397688154633</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U23" t="n">
-        <v>1425.397688154633</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V23" t="n">
-        <v>1425.397688154633</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="W23" t="n">
-        <v>1072.629032884519</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="X23" t="n">
-        <v>1072.629032884519</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="Y23" t="n">
-        <v>1072.629032884519</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>784.9017952688528</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C24" t="n">
-        <v>610.4487659877258</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D24" t="n">
-        <v>461.5143563264745</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E24" t="n">
-        <v>302.276901321019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>155.742343347904</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
         <v>32.45932575975218</v>
@@ -6077,13 +6077,13 @@
         <v>358.9399761455072</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321102</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P24" t="n">
         <v>1622.966287987609</v>
@@ -6092,28 +6092,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U24" t="n">
-        <v>1622.966287987609</v>
+        <v>1260.848028632561</v>
       </c>
       <c r="V24" t="n">
-        <v>1622.966287987609</v>
+        <v>1025.695920400819</v>
       </c>
       <c r="W24" t="n">
-        <v>1368.728931259408</v>
+        <v>771.4585636726172</v>
       </c>
       <c r="X24" t="n">
-        <v>1160.877431053875</v>
+        <v>563.6070634670843</v>
       </c>
       <c r="Y24" t="n">
-        <v>953.1171322889209</v>
+        <v>355.8467647021305</v>
       </c>
     </row>
     <row r="25">
@@ -6168,31 +6168,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.45932575975219</v>
+        <v>741.5661455409479</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975219</v>
+        <v>741.5661455409479</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975219</v>
+        <v>741.5661455409479</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>355.7778929427037</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975219</v>
+        <v>355.7778929427037</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K26" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O26" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P26" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q26" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T26" t="n">
-        <v>1088.658125761969</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U26" t="n">
-        <v>834.8212426942232</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V26" t="n">
-        <v>503.7583553506526</v>
+        <v>1094.334800811062</v>
       </c>
       <c r="W26" t="n">
-        <v>419.059165823874</v>
+        <v>741.5661455409479</v>
       </c>
       <c r="X26" t="n">
-        <v>419.059165823874</v>
+        <v>741.5661455409479</v>
       </c>
       <c r="Y26" t="n">
-        <v>419.059165823874</v>
+        <v>741.5661455409479</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>803.9870437653121</v>
+        <v>724.8223139276254</v>
       </c>
       <c r="C27" t="n">
-        <v>629.5340144841851</v>
+        <v>724.8223139276254</v>
       </c>
       <c r="D27" t="n">
-        <v>480.5996048229339</v>
+        <v>575.8879042663741</v>
       </c>
       <c r="E27" t="n">
-        <v>321.3621498174784</v>
+        <v>416.6504492609186</v>
       </c>
       <c r="F27" t="n">
-        <v>321.3621498174784</v>
+        <v>270.1158912878036</v>
       </c>
       <c r="G27" t="n">
-        <v>182.9497765766486</v>
+        <v>131.7035180469738</v>
       </c>
       <c r="H27" t="n">
-        <v>72.65621858411188</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M27" t="n">
-        <v>546.7891136313476</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082811</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.96628798761</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U27" t="n">
-        <v>1622.96628798761</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="V27" t="n">
-        <v>1387.814179755867</v>
+        <v>1186.91117086136</v>
       </c>
       <c r="W27" t="n">
-        <v>1387.814179755867</v>
+        <v>932.6738141331582</v>
       </c>
       <c r="X27" t="n">
-        <v>1179.962679550334</v>
+        <v>724.8223139276254</v>
       </c>
       <c r="Y27" t="n">
-        <v>972.2023807853802</v>
+        <v>724.8223139276254</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975219</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975219</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6408,28 +6408,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1236.366447923488</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="C29" t="n">
-        <v>1236.366447923488</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="D29" t="n">
-        <v>1236.366447923488</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="E29" t="n">
-        <v>1236.366447923488</v>
+        <v>702.8698731637244</v>
       </c>
       <c r="F29" t="n">
-        <v>826.526476209445</v>
+        <v>293.0299014496816</v>
       </c>
       <c r="G29" t="n">
-        <v>416.6865044954022</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
-        <v>79.87810478255307</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
         <v>519.4894913528326</v>
@@ -6478,37 +6478,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O29" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P29" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y29" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207.4617876008819</v>
+        <v>476.0146696852966</v>
       </c>
       <c r="C30" t="n">
-        <v>33.00875831975489</v>
+        <v>301.5616404041696</v>
       </c>
       <c r="D30" t="n">
-        <v>33.00875831975489</v>
+        <v>301.5616404041696</v>
       </c>
       <c r="E30" t="n">
-        <v>33.00875831975489</v>
+        <v>142.3241853987141</v>
       </c>
       <c r="F30" t="n">
-        <v>33.00875831975489</v>
+        <v>142.3241853987141</v>
       </c>
       <c r="G30" t="n">
-        <v>33.00875831975489</v>
+        <v>142.3241853987141</v>
       </c>
       <c r="H30" t="n">
-        <v>33.00875831975489</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L30" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M30" t="n">
-        <v>656.0248753321105</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T30" t="n">
-        <v>1340.665718993835</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U30" t="n">
-        <v>1112.463051531313</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V30" t="n">
-        <v>877.3109432995702</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="W30" t="n">
-        <v>623.0735865713687</v>
+        <v>891.6264686557834</v>
       </c>
       <c r="X30" t="n">
-        <v>415.2220863658358</v>
+        <v>683.7749684502505</v>
       </c>
       <c r="Y30" t="n">
-        <v>207.4617876008819</v>
+        <v>476.0146696852966</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975219</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975219</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975219</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975219</v>
+        <v>41.70908386009884</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
         <v>107.0302722280248</v>
@@ -6642,31 +6642,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>67.46279708410611</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>67.46279708410611</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>779.1076971866441</v>
+        <v>846.2271159476761</v>
       </c>
       <c r="C32" t="n">
-        <v>779.1076971866441</v>
+        <v>477.2645990072644</v>
       </c>
       <c r="D32" t="n">
-        <v>779.1076971866441</v>
+        <v>477.2645990072644</v>
       </c>
       <c r="E32" t="n">
-        <v>779.1076971866441</v>
+        <v>91.47634640902015</v>
       </c>
       <c r="F32" t="n">
-        <v>369.2677254726013</v>
+        <v>91.47634640902015</v>
       </c>
       <c r="G32" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011319</v>
@@ -6733,19 +6733,19 @@
         <v>1622.96628798761</v>
       </c>
       <c r="U32" t="n">
-        <v>1462.939239800329</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V32" t="n">
-        <v>1131.876352456758</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W32" t="n">
-        <v>779.1076971866441</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X32" t="n">
-        <v>779.1076971866441</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y32" t="n">
-        <v>779.1076971866441</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.45932575975219</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>534.697260562599</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M33" t="n">
-        <v>934.1153971668621</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1455.464052945775</v>
+        <v>1474.082524116664</v>
       </c>
       <c r="T33" t="n">
-        <v>1254.561044051269</v>
+        <v>1273.179515222157</v>
       </c>
       <c r="U33" t="n">
-        <v>1026.358376588747</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="V33" t="n">
-        <v>791.2062683570043</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W33" t="n">
-        <v>536.9689116288027</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X33" t="n">
-        <v>329.1174114232699</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y33" t="n">
-        <v>121.357112658316</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1402.17370884408</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144412</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144412</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144412</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.96628798761</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.96628798761</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X34" t="n">
-        <v>1622.96628798761</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y34" t="n">
-        <v>1402.17370884408</v>
+        <v>106.5621133970633</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.1638382513748</v>
+        <v>623.4831963284439</v>
       </c>
       <c r="C35" t="n">
-        <v>955.1638382513748</v>
+        <v>623.4831963284439</v>
       </c>
       <c r="D35" t="n">
-        <v>955.1638382513748</v>
+        <v>623.4831963284439</v>
       </c>
       <c r="E35" t="n">
-        <v>955.1638382513748</v>
+        <v>623.4831963284439</v>
       </c>
       <c r="F35" t="n">
-        <v>955.1638382513748</v>
+        <v>213.643224614401</v>
       </c>
       <c r="G35" t="n">
-        <v>545.323866537332</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
@@ -6940,10 +6940,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M35" t="n">
         <v>838.8947028941458</v>
@@ -6952,37 +6952,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T35" t="n">
-        <v>1286.226725594945</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U35" t="n">
-        <v>1286.226725594945</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V35" t="n">
-        <v>955.1638382513748</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W35" t="n">
-        <v>955.1638382513748</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X35" t="n">
-        <v>955.1638382513748</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y35" t="n">
-        <v>955.1638382513748</v>
+        <v>1010.083036392566</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>445.4851866192014</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C36" t="n">
-        <v>271.0321573380744</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D36" t="n">
-        <v>271.0321573380744</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975219</v>
@@ -7025,43 +7025,43 @@
         <v>534.697260562599</v>
       </c>
       <c r="M36" t="n">
-        <v>656.0248753321104</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q36" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894784</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577356</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W36" t="n">
-        <v>455.571351529534</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X36" t="n">
-        <v>445.4851866192014</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y36" t="n">
-        <v>445.4851866192014</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>348.7701515881781</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
         <v>32.45932575975219</v>
@@ -7125,22 +7125,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.45932575975219</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C38" t="n">
-        <v>32.45932575975219</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975219</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975219</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L38" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.96628798761</v>
+        <v>1591.692640308931</v>
       </c>
       <c r="U38" t="n">
-        <v>1479.895958610329</v>
+        <v>1591.692640308931</v>
       </c>
       <c r="V38" t="n">
-        <v>1148.833071266758</v>
+        <v>1591.692640308931</v>
       </c>
       <c r="W38" t="n">
-        <v>796.0644159966438</v>
+        <v>1591.692640308931</v>
       </c>
       <c r="X38" t="n">
-        <v>422.5986577355639</v>
+        <v>1218.226882047851</v>
       </c>
       <c r="Y38" t="n">
-        <v>32.45932575975219</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="39">
@@ -7232,52 +7232,52 @@
         <v>206.9123550408792</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
         <v>1541.019295328339</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>129.490276430019</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="C40" t="n">
-        <v>129.490276430019</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="D40" t="n">
-        <v>129.490276430019</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E40" t="n">
-        <v>129.490276430019</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F40" t="n">
-        <v>129.490276430019</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G40" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H40" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I40" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
@@ -7353,31 +7353,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V40" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W40" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X40" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.490276430019</v>
+        <v>351.9968435026035</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>119.9927024164819</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="C41" t="n">
-        <v>119.9927024164819</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="D41" t="n">
-        <v>119.9927024164819</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="E41" t="n">
-        <v>119.9927024164819</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="F41" t="n">
-        <v>119.9927024164819</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G41" t="n">
-        <v>119.9927024164819</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K41" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7441,22 +7441,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.197632717495</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="X41" t="n">
-        <v>896.7318744564154</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.5925424806037</v>
+        <v>1378.603698709343</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>965.4031851870463</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="C42" t="n">
-        <v>790.9501559059194</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>642.0157462446681</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>482.7782912392126</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>336.2437332660976</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
         <v>222.0882603251556</v>
@@ -7490,25 +7490,25 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809358</v>
+        <v>91.88297124942892</v>
       </c>
       <c r="L42" t="n">
-        <v>534.697260562599</v>
+        <v>389.6147262310921</v>
       </c>
       <c r="M42" t="n">
-        <v>656.0248753321101</v>
+        <v>789.0328628353551</v>
       </c>
       <c r="N42" t="n">
-        <v>1057.709031609043</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.722538783602</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7523,19 +7523,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1173.163483952</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V42" t="n">
-        <v>1173.163483952</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="W42" t="n">
-        <v>1173.163483952</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="X42" t="n">
-        <v>1173.163483952</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="Y42" t="n">
-        <v>965.4031851870463</v>
+        <v>944.9608164894784</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E43" t="n">
-        <v>1475.053194405216</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F43" t="n">
-        <v>1328.163246907306</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>1622.966287987609</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1596.193220392832</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C44" t="n">
-        <v>1596.193220392832</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D44" t="n">
-        <v>1237.927521786082</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E44" t="n">
         <v>852.1392691878377</v>
@@ -7651,10 +7651,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941457</v>
@@ -7663,37 +7663,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="W44" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="X44" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y44" t="n">
-        <v>1596.193220392832</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>267.4491180433354</v>
+        <v>408.3647964953884</v>
       </c>
       <c r="C45" t="n">
-        <v>92.99608876220836</v>
+        <v>408.3647964953884</v>
       </c>
       <c r="D45" t="n">
-        <v>32.45932575975219</v>
+        <v>408.3647964953884</v>
       </c>
       <c r="E45" t="n">
-        <v>32.45932575975219</v>
+        <v>408.3647964953884</v>
       </c>
       <c r="F45" t="n">
-        <v>32.45932575975219</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G45" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975219</v>
@@ -7730,22 +7730,22 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L45" t="n">
-        <v>147.3709770270843</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313473</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7757,22 +7757,22 @@
         <v>1541.568727888341</v>
       </c>
       <c r="T45" t="n">
-        <v>1340.665718993834</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U45" t="n">
-        <v>1340.665718993834</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V45" t="n">
-        <v>1105.513610762092</v>
+        <v>1078.213952194077</v>
       </c>
       <c r="W45" t="n">
-        <v>851.2762540338902</v>
+        <v>823.9765954658751</v>
       </c>
       <c r="X45" t="n">
-        <v>643.4247538283573</v>
+        <v>616.1250952603423</v>
       </c>
       <c r="Y45" t="n">
-        <v>435.6644550634034</v>
+        <v>408.3647964953884</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="C46" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="D46" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="E46" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="F46" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975219</v>
@@ -7836,22 +7836,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W46" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X46" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970633</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733472</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>174.1879045256803</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>303.3627954849604</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>174.1879045256803</v>
+        <v>447.9178485742653</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q15" t="n">
         <v>99.73813450275541</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733472</v>
       </c>
       <c r="M18" t="n">
-        <v>251.9990040344214</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>364.5878977387108</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>104.7567089243584</v>
+        <v>133.7959972113203</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q24" t="n">
         <v>99.73813450275541</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>251.9990040344215</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>391.3774455544768</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321618</v>
       </c>
       <c r="N33" t="n">
-        <v>63.84875129258646</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>184.8055467452003</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258646</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>351.7205150479952</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>146.9565108232705</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>184.8055467452</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>157.1342855878804</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11390,13 +11390,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>112.9628022719294</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>67.66411053966976</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G11" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>71.2433850665133</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
@@ -23320,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>37.36804559528611</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>202.7107073159004</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>107.4575578983942</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,10 +23436,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>126.1137933559315</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
         <v>219.4103988718534</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
@@ -23515,7 +23515,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
@@ -23554,16 +23554,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>164.4176026760294</v>
+        <v>58.40886203420138</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>34.70375822202607</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>202.7107073159002</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23670,13 +23670,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>120.9008132556202</v>
       </c>
       <c r="I16" t="n">
-        <v>126.1137933559314</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
         <v>219.4103988718534</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>132.6030594580666</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>264.762404093555</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>132.2434371502105</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>137.6439878620818</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -23870,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>75.2537132572744</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>106.4446432747563</v>
       </c>
       <c r="G19" t="n">
         <v>167.7266695472104</v>
@@ -23949,10 +23949,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>239.8388375051617</v>
+        <v>261.605669369405</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>149.9097029605424</v>
+        <v>18.27992751005741</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24183,19 +24183,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>179.3898627250243</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24214,10 +24214,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>163.6455040125477</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>8.97193213363164</v>
@@ -24259,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>208.2302164284757</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24293,13 +24293,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>14.97806209615118</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>146.9011273302366</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>140.6371895548668</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>94.62812261941195</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>265.3887710859022</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>10.93887204826191</v>
       </c>
       <c r="I27" t="n">
-        <v>38.74709891102194</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206407878966</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>159.8772180037952</v>
+        <v>1.624636017657082</v>
       </c>
       <c r="I28" t="n">
         <v>147.5019580580808</v>
@@ -24648,7 +24648,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
         <v>219.4103988718534</v>
@@ -24657,7 +24657,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>126.2142705097871</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809043</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>8.971932133631526</v>
+        <v>156.7486341975037</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>140.8148782779971</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24767,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24776,10 +24776,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0.4244113700390955</v>
       </c>
       <c r="I30" t="n">
-        <v>77.99808457273537</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>150.719957484452</v>
       </c>
       <c r="I31" t="n">
         <v>147.5019580580808</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
         <v>165.4090611368575</v>
@@ -24891,13 +24891,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>217.4842067127176</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>356.2866536877586</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24973,19 +24973,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>92.87173653166042</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>78.52437462028918</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25046,7 +25046,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>18.43228645918009</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>60.33207136595664</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>72.05928826199327</v>
       </c>
       <c r="G34" t="n">
         <v>167.7266695472104</v>
@@ -25134,7 +25134,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G35" t="n">
-        <v>8.971932133631583</v>
+        <v>235.3414442644315</v>
       </c>
       <c r="H35" t="n">
-        <v>13.4638898564865</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
@@ -25213,7 +25213,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25253,7 +25253,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.52437462028902</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>195.7876819422482</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>134.0822771319449</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25365,7 +25365,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>81.14884278648265</v>
       </c>
       <c r="U37" t="n">
         <v>286.3046124576955</v>
@@ -25399,10 +25399,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25444,16 +25444,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>189.5555692211483</v>
       </c>
       <c r="U38" t="n">
-        <v>109.6588881535604</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>84.69968995873745</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>126.1137933559314</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
         <v>219.4103988718534</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>209.4273928327516</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H41" t="n">
-        <v>246.7822728255582</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>229.896031274625</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>44.25227630748134</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>24.01433129688891</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0822771319447</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
         <v>159.8772180037952</v>
@@ -25809,7 +25809,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>118.794905656366</v>
       </c>
     </row>
     <row r="44">
@@ -25870,10 +25870,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>1.1344737448091</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>207.7898710500853</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>359.7326017372245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>87.51367019220714</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>19.14166828613692</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25997,10 +25997,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>72.05928826199329</v>
       </c>
       <c r="G46" t="n">
-        <v>69.04353215175573</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26076,13 +26076,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>499890.5515127674</v>
+        <v>499890.5515127669</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>499890.5515127674</v>
+        <v>499890.551512767</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>499890.551512767</v>
+        <v>499890.5515127669</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>499890.5515127672</v>
+        <v>499890.5515127669</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>499890.5515127672</v>
+        <v>499890.5515127674</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>499890.5515127672</v>
+        <v>499890.5515127674</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499890.5515127672</v>
+        <v>499890.5515127671</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499890.5515127674</v>
+        <v>499890.5515127675</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499890.5515127675</v>
+        <v>499890.5515127669</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>499890.5515127673</v>
+        <v>499890.551512767</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>256354.6764775276</v>
+      </c>
+      <c r="F2" t="n">
         <v>256354.6764775277</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>256354.6764775275</v>
+      </c>
+      <c r="H2" t="n">
         <v>256354.6764775278</v>
-      </c>
-      <c r="G2" t="n">
-        <v>256354.6764775276</v>
-      </c>
-      <c r="H2" t="n">
-        <v>256354.6764775276</v>
       </c>
       <c r="I2" t="n">
         <v>256354.6764775276</v>
       </c>
       <c r="J2" t="n">
+        <v>256354.6764775278</v>
+      </c>
+      <c r="K2" t="n">
+        <v>256354.6764775275</v>
+      </c>
+      <c r="L2" t="n">
+        <v>256354.6764775277</v>
+      </c>
+      <c r="M2" t="n">
+        <v>256354.6764775277</v>
+      </c>
+      <c r="N2" t="n">
+        <v>256354.6764775277</v>
+      </c>
+      <c r="O2" t="n">
+        <v>256354.6764775277</v>
+      </c>
+      <c r="P2" t="n">
         <v>256354.6764775276</v>
-      </c>
-      <c r="K2" t="n">
-        <v>256354.6764775276</v>
-      </c>
-      <c r="L2" t="n">
-        <v>256354.6764775276</v>
-      </c>
-      <c r="M2" t="n">
-        <v>256354.6764775276</v>
-      </c>
-      <c r="N2" t="n">
-        <v>256354.6764775278</v>
-      </c>
-      <c r="O2" t="n">
-        <v>256354.6764775278</v>
-      </c>
-      <c r="P2" t="n">
-        <v>256354.6764775277</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244792</v>
+        <v>41050.69786244791</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>8850.046967220573</v>
       </c>
       <c r="J4" t="n">
-        <v>8850.046967220575</v>
+        <v>8850.046967220573</v>
       </c>
       <c r="K4" t="n">
         <v>8850.046967220573</v>
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375757</v>
@@ -26493,19 +26493,19 @@
         <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375757</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76081.72291945881</v>
+        <v>76081.72291945864</v>
       </c>
       <c r="C6" t="n">
         <v>156851.1544510064</v>
       </c>
       <c r="D6" t="n">
-        <v>156851.1544510064</v>
+        <v>156851.1544510066</v>
       </c>
       <c r="E6" t="n">
-        <v>52700.10647130276</v>
+        <v>42855.50707792591</v>
       </c>
       <c r="F6" t="n">
-        <v>219640.2765965496</v>
+        <v>209795.6772031728</v>
       </c>
       <c r="G6" t="n">
-        <v>219640.2765965494</v>
+        <v>209795.6772031726</v>
       </c>
       <c r="H6" t="n">
-        <v>219640.2765965495</v>
+        <v>209795.6772031728</v>
       </c>
       <c r="I6" t="n">
-        <v>219640.2765965495</v>
+        <v>209795.6772031727</v>
       </c>
       <c r="J6" t="n">
-        <v>156580.3339974432</v>
+        <v>146735.7346040667</v>
       </c>
       <c r="K6" t="n">
-        <v>219640.2765965495</v>
+        <v>209795.6772031726</v>
       </c>
       <c r="L6" t="n">
-        <v>219640.2765965495</v>
+        <v>209795.6772031728</v>
       </c>
       <c r="M6" t="n">
-        <v>178589.5787341016</v>
+        <v>168744.9793407249</v>
       </c>
       <c r="N6" t="n">
-        <v>219640.2765965497</v>
+        <v>209795.6772031728</v>
       </c>
       <c r="O6" t="n">
-        <v>219640.2765965496</v>
+        <v>209795.6772031727</v>
       </c>
       <c r="P6" t="n">
-        <v>219640.2765965495</v>
+        <v>209795.6772031727</v>
       </c>
     </row>
   </sheetData>
@@ -26776,7 +26776,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="P3" t="n">
         <v>146.5718044195371</v>
@@ -26801,7 +26801,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969023</v>
@@ -26813,19 +26813,19 @@
         <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="K4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="L4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="M4" t="n">
         <v>405.7415719969024</v>
       </c>
-      <c r="K4" t="n">
-        <v>405.7415719969024</v>
-      </c>
-      <c r="L4" t="n">
-        <v>405.7415719969024</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>405.7415719969023</v>
-      </c>
-      <c r="N4" t="n">
-        <v>405.7415719969024</v>
       </c>
       <c r="O4" t="n">
         <v>405.7415719969023</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>201.2949868753087</v>
       </c>
       <c r="H2" t="n">
-        <v>140.7697889910758</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,16 +27460,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>49.523834559474</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>59.56040102148651</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,22 +27660,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>87.73299747859798</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,10 +27715,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.25440111315061</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>76.86255853329246</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.6179384914298</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27921,7 +27921,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>335.9462234883513</v>
       </c>
     </row>
     <row r="9">
@@ -27943,10 +27943,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.23894902822551</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27988,13 +27988,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>45.77818463871051</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28025,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>54.03113748306089</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31934,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31943,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32645,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32654,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H41" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I41" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J41" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K41" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L41" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M41" t="n">
         <v>103.4642265438474</v>
@@ -34146,16 +34146,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O41" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P41" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R41" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S41" t="n">
         <v>13.4271557515988</v>
@@ -34164,7 +34164,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H42" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I42" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K42" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L42" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M42" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O42" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P42" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R42" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S42" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T42" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,40 +34283,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H43" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I43" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J43" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K43" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L43" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M43" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N43" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O43" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P43" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R43" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S43" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T43" t="n">
         <v>1.129323738970203</v>
@@ -34786,13 +34786,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>124.8420549921029</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>235.7767460815218</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>177.5326105223149</v>
@@ -35737,13 +35737,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>124.8420549921029</v>
+        <v>398.571999040688</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>189.7466035210508</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>315.2420482051334</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969023</v>
@@ -36217,7 +36217,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>30.98459604604517</v>
+        <v>60.0238843330071</v>
       </c>
       <c r="Q21" t="n">
         <v>110.3391532330937</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
         <v>405.7415719969023</v>
@@ -36454,7 +36454,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>244.6906557616239</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>189.7466035210509</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969024</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>329.1250450411061</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969024</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36931,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>177.5326105223149</v>
@@ -37156,10 +37156,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>403.4526632366293</v>
+        <v>151.5924345187911</v>
       </c>
       <c r="N33" t="n">
-        <v>14.50290175900908</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37168,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>122.5531462318296</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900908</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37405,7 +37405,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37633,7 +37633,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>302.3746655144178</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37642,7 +37642,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
@@ -37800,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223149</v>
+        <v>60.0238843330068</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>122.5531462318294</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
         <v>405.7415719969023</v>
@@ -37876,10 +37876,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.690655761624</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L43" t="n">
         <v>66.88568574354744</v>
@@ -37952,10 +37952,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O43" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P43" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680266</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L45" t="n">
-        <v>87.03308673054569</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
@@ -38110,13 +38110,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
-        <v>326.276269873291</v>
+        <v>45.37675286849093</v>
       </c>
       <c r="P45" t="n">
         <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
